--- a/Module 1 - Quiz/Module 1_Quiz Data_BoxPlot.xlsx
+++ b/Module 1 - Quiz/Module 1_Quiz Data_BoxPlot.xlsx
@@ -1,20 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17668"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CertTFS\Online-Content\Courses\ENG\DAT222x - Essential Statistics for Data Analysis using Excel\Assessments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anguyen\Documents\GitHub\stats-edx\Module 1 - Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1614382C-E544-4E75-A1ED-99F42BFC5B88}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="12120" windowHeight="8580"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="12120" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$147</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$2:$A$147</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$2:$B$147</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$2:$C$147</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$D$2:$D$147</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$E$2:$E$147</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$147</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$2:$C$147</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$2:$D$147</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$E$2:$E$147</definedName>
+  </definedNames>
+  <calcPr calcId="179017"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -60,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -152,7 +182,160 @@
 </cx:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{24FCA46C-5881-46E9-B40C-333B703FBC24}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>Dell</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{26F71149-0144-4934-A922-0FC7C8844E6F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>INTC</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{4310F051-69FA-42ED-82B8-BEFF6431390A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>MSFT</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{7E768F75-59A9-403A-8567-EC4EFBB232B8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>NT</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{A1761F99-D85F-4E49-81BB-19F910D14F60}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>PFE</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -666,6 +849,521 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -727,8 +1425,86 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="990600" y="69342000"/>
-              <a:ext cx="5257800" cy="2819400"/>
+              <a:off x="914400" y="67360800"/>
+              <a:ext cx="4038600" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>248477</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>115955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>347869</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>87795</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116CA6AE-6DA5-4B54-8ABF-54E7C5E0F460}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3428999" y="19994216"/>
+              <a:ext cx="4340087" cy="2953579"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1081,16 +1857,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E442"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K442"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P134" sqref="P134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1107,7 +1883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0.28211284513805529</v>
       </c>
@@ -1123,8 +1899,28 @@
       <c r="E2" s="1">
         <v>7.1411073003429706E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G2">
+        <f>MEDIAN(A2:A147)</f>
+        <v>5.6507188125057763E-2</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:K2" si="0">MEDIAN(B2:B147)</f>
+        <v>2.8107807150778451E-2</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>3.7590002784764154E-2</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>2.2034896622502954E-2</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>2.6407853741520011E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.15823970037453181</v>
       </c>
@@ -1141,7 +1937,7 @@
         <v>5.0588773293700706E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>-8.4074373484236103E-2</v>
       </c>
@@ -1158,7 +1954,7 @@
         <v>2.5028565210294018E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>-8.0317740511915245E-2</v>
       </c>
@@ -1175,7 +1971,7 @@
         <v>2.2035278154681124E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>-4.9904030710172707E-2</v>
       </c>
@@ -1192,7 +1988,7 @@
         <v>3.3455472359407213E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>-0.17171717171717171</v>
       </c>
@@ -1209,7 +2005,7 @@
         <v>-4.3400021170742077E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>-9.512195121951221E-2</v>
       </c>
@@ -1226,7 +2022,7 @@
         <v>4.310058647781348E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0.1051212938005391</v>
       </c>
@@ -1243,7 +2039,7 @@
         <v>7.6062165172651672E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7.9268292682926733E-2</v>
       </c>
@@ -1260,7 +2056,7 @@
         <v>-5.6193621531030096E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>-7.3446327683615725E-2</v>
       </c>
@@ -1277,7 +2073,7 @@
         <v>-5.94358796411045E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>-0.14268292682926831</v>
       </c>
@@ -1294,7 +2090,7 @@
         <v>0.14351217455465384</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3.6984352773826529E-2</v>
       </c>
@@ -1311,7 +2107,7 @@
         <v>6.540074664700174E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1.7832647462277029E-2</v>
       </c>
@@ -1328,7 +2124,7 @@
         <v>-9.041356636096079E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>-0.15768194070080865</v>
       </c>
@@ -1345,7 +2141,7 @@
         <v>-1.4537041079146159E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>-4.159999999999997E-2</v>
       </c>
@@ -1362,7 +2158,7 @@
         <v>0.1047222468326392</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>-4.3405676126878213E-2</v>
       </c>
@@ -1379,7 +2175,7 @@
         <v>-6.2394738952602356E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>-0.15881326352530536</v>
       </c>
@@ -1396,7 +2192,7 @@
         <v>-1.44127961679925E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0.35062240663900424</v>
       </c>
@@ -1413,7 +2209,7 @@
         <v>-0.13117812974614876</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0.21966205837173566</v>
       </c>
@@ -1430,7 +2226,7 @@
         <v>2.756967335930461E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0.11460957178841306</v>
       </c>
@@ -1447,7 +2243,7 @@
         <v>-6.3915621658403796E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>0.29491525423728815</v>
       </c>
@@ -1464,7 +2260,7 @@
         <v>0.17238693597798424</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0.14746945898778371</v>
       </c>
@@ -1481,7 +2277,7 @@
         <v>-2.6573364630851505E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>-6.9201520912547609E-2</v>
       </c>
@@ -1498,7 +2294,7 @@
         <v>0.18130943173028793</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -1515,7 +2311,7 @@
         <v>-5.492219996918804E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>-0.25571895424836599</v>
       </c>
@@ -1532,7 +2328,7 @@
         <v>-5.2979052897548064E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0.21514818880351269</v>
       </c>
@@ -1549,7 +2345,7 @@
         <v>3.0072107505735971E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0.23486901535682006</v>
       </c>
@@ -1566,7 +2362,7 @@
         <v>0.11896428287327965</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0.40965618141916627</v>
       </c>
@@ -1583,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0.22314478463933565</v>
       </c>
@@ -1600,7 +2396,7 @@
         <v>0.11299896918209942</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0.11582520152736538</v>
       </c>
@@ -1617,7 +2413,7 @@
         <v>0.17587506387327539</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0.12889733840304177</v>
       </c>
@@ -1634,7 +2430,7 @@
         <v>1.9039083082104242E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>-0.17985853822835973</v>
       </c>
@@ -1651,7 +2447,7 @@
         <v>1.871002132196169E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>5.872689938398349E-2</v>
       </c>
@@ -1668,7 +2464,7 @@
         <v>8.6494688922610016E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>-1.0085337470907648E-2</v>
       </c>
@@ -1685,7 +2481,7 @@
         <v>-5.7334810248507076E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>0.17358934169279</v>
       </c>
@@ -1702,7 +2498,7 @@
         <v>0.11487470304237873</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>0.1345575959933222</v>
       </c>
@@ -1719,7 +2515,7 @@
         <v>6.4270002749518829E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2.3248969982342608E-2</v>
       </c>
@@ -1736,7 +2532,7 @@
         <v>-5.7267110163835991E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>-0.25481737129709525</v>
       </c>
@@ -1753,7 +2549,7 @@
         <v>9.9798627200485143E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>-5.519104592821307E-2</v>
       </c>
@@ -1770,7 +2566,7 @@
         <v>-6.8770672546857842E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>9.0277777777777929E-2</v>
       </c>
@@ -1787,7 +2583,7 @@
         <v>0.26552358400811865</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>0.24391157736980137</v>
       </c>
@@ -1804,7 +2600,7 @@
         <v>-0.13094323231648239</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>9.4277108433734921E-2</v>
       </c>
@@ -1821,7 +2617,7 @@
         <v>2.574009996155319E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>4.2939719240297283E-2</v>
       </c>
@@ -1838,7 +2634,7 @@
         <v>-6.7111452613429684E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>8.2607548165742922E-2</v>
       </c>
@@ -1855,7 +2651,7 @@
         <v>2.8787817911527177E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>2.3647001462701087E-2</v>
       </c>
@@ -1872,7 +2668,7 @@
         <v>4.9091015602116615E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>-0.32555370326268157</v>
       </c>
@@ -1889,7 +2685,7 @@
         <v>-2.1777570963238718E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>0.26906779661016944</v>
       </c>
@@ -1906,7 +2702,7 @@
         <v>7.3637142041670725E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>9.7662771285475847E-2</v>
       </c>
@@ -1923,7 +2719,7 @@
         <v>-9.6942844483828821E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>0.13384030418250939</v>
       </c>
@@ -1940,7 +2736,7 @@
         <v>-3.2356204588567888E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>0.19204113570310763</v>
       </c>
@@ -1957,7 +2753,7 @@
         <v>1.1707046421305699E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>7.6894223555889041E-2</v>
       </c>
@@ -1974,7 +2770,7 @@
         <v>3.8114911430817307E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>0.30616509926854746</v>
       </c>
@@ -1991,7 +2787,7 @@
         <v>-7.2004648869479479E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>-3.6399999999999988E-2</v>
       </c>
@@ -2008,7 +2804,7 @@
         <v>-8.9660145353801804E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>-0.30538259305382592</v>
       </c>
@@ -2025,7 +2821,7 @@
         <v>-0.10960103389335878</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>9.3227091633466042E-2</v>
       </c>
@@ -2042,7 +2838,7 @@
         <v>6.6368573836501563E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>-0.17438046647230313</v>
       </c>
@@ -2059,7 +2855,7 @@
         <v>9.6375491207657357E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>-0.16795409401898037</v>
       </c>
@@ -2076,7 +2872,7 @@
         <v>5.7688071924871173E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>-0.22281167108753322</v>
       </c>
@@ -2093,7 +2889,7 @@
         <v>-6.6184544318655059E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>7.3378839590443751E-2</v>
       </c>
@@ -2110,7 +2906,7 @@
         <v>-0.11194907351092731</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>-8.712241653418118E-2</v>
       </c>
@@ -2127,7 +2923,7 @@
         <v>6.6340973427084379E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>-9.5088819226750415E-2</v>
       </c>
@@ -2144,7 +2940,7 @@
         <v>-5.5555555555555566E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>0.21785989222478847</v>
       </c>
@@ -2161,7 +2957,7 @@
         <v>4.6220106539725705E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>0.33944374209860934</v>
       </c>
@@ -2178,7 +2974,7 @@
         <v>7.5334748884170313E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>-0.16588013213780092</v>
       </c>
@@ -2195,7 +2991,7 @@
         <v>3.7597469323608294E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>-2.7439886845827401E-2</v>
       </c>
@@ -2212,7 +3008,7 @@
         <v>-6.3401751558343253E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>0.13612565445026181</v>
       </c>
@@ -2229,7 +3025,7 @@
         <v>-9.5662630618676456E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>9.9846390168971191E-3</v>
       </c>
@@ -2246,7 +3042,7 @@
         <v>-6.8962354991058683E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>-0.12851711026615975</v>
       </c>
@@ -2263,7 +3059,7 @@
         <v>9.2588032504309373E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>0.30104712041884812</v>
       </c>
@@ -2280,7 +3076,7 @@
         <v>8.9114266396213546E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>-7.8694388553543382E-2</v>
       </c>
@@ -2297,7 +3093,7 @@
         <v>-9.808790663024515E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>6.1635525357922778E-2</v>
       </c>
@@ -2314,7 +3110,7 @@
         <v>-1.7826541274817167E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>0.16068571428571435</v>
       </c>
@@ -2331,7 +3127,7 @@
         <v>0.10921973743004874</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>0.15202835762111053</v>
       </c>
@@ -2348,7 +3144,7 @@
         <v>1.281411854977935E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>0.18854700854700868</v>
       </c>
@@ -2365,7 +3161,7 @@
         <v>7.2351225425205612E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>-3.2216309506687725E-2</v>
       </c>
@@ -2382,7 +3178,7 @@
         <v>5.0513970821999994E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>-4.8001188883935363E-2</v>
       </c>
@@ -2399,7 +3195,7 @@
         <v>-1.6140421668515805E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>3.9650327817671076E-2</v>
       </c>
@@ -2416,7 +3212,7 @@
         <v>5.8249974739820048E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>-2.6426426426426515E-2</v>
       </c>
@@ -2433,7 +3229,7 @@
         <v>2.1769227096958998E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>5.4287476866132035E-2</v>
       </c>
@@ -2450,7 +3246,7 @@
         <v>3.3141771402762941E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>0.25146284376828565</v>
       </c>
@@ -2467,7 +3263,7 @@
         <v>1.020546602951587E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>-7.9953243717124506E-2</v>
       </c>
@@ -2484,7 +3280,7 @@
         <v>2.3398095920255543E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>0.1936221572862406</v>
       </c>
@@ -2501,7 +3297,7 @@
         <v>4.5390918900002936E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>8.1000532197977704E-2</v>
       </c>
@@ -2518,7 +3314,7 @@
         <v>9.9058511751168074E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>0.18461992910594721</v>
       </c>
@@ -2535,7 +3331,7 @@
         <v>-1.9734253842151349E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>0.10389826282104563</v>
       </c>
@@ -2552,7 +3348,7 @@
         <v>8.1018098961704768E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>9.7055944582486259E-2</v>
       </c>
@@ -2569,7 +3365,7 @@
         <v>7.4934131736526965E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>-5.0926561427590965E-2</v>
       </c>
@@ -2586,7 +3382,7 @@
         <v>1.5319139454304518E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>-0.21752964998553656</v>
       </c>
@@ -2603,7 +3399,7 @@
         <v>8.6204626256419115E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>-0.20933456561922367</v>
       </c>
@@ -2620,7 +3416,7 @@
         <v>8.7293409302137692E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>0.25563997662185856</v>
       </c>
@@ -2637,7 +3433,7 @@
         <v>-3.4042869486848384E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>-2.5414261776205642E-2</v>
       </c>
@@ -2654,7 +3450,7 @@
         <v>2.0872408983792674E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>0.3693762537014042</v>
       </c>
@@ -2671,7 +3467,7 @@
         <v>2.416733405568371E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>0.20710100446428567</v>
       </c>
@@ -2688,7 +3484,7 @@
         <v>3.2014719411223622E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>-8.1305980930366853E-2</v>
       </c>
@@ -2705,7 +3501,7 @@
         <v>8.8340167587805281E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>9.0954837086425863E-2</v>
       </c>
@@ -2722,7 +3518,7 @@
         <v>-1.6806425674421966E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>0.20946725092250934</v>
       </c>
@@ -2739,7 +3535,7 @@
         <v>1.6096127402960399E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>0.15826857987319437</v>
       </c>
@@ -2756,7 +3552,7 @@
         <v>0.11443481337343013</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>4.6631271350372545E-2</v>
       </c>
@@ -2773,7 +3569,7 @@
         <v>4.5818187590279148E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>0.24883995281163979</v>
       </c>
@@ -2790,7 +3586,7 @@
         <v>8.6870403958382372E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>4.550034636941868E-2</v>
       </c>
@@ -2807,7 +3603,7 @@
         <v>-7.3922272340068984E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>0.24470680360208402</v>
       </c>
@@ -2824,7 +3620,7 @@
         <v>0.11446042026373929</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>7.561459543166861E-2</v>
       </c>
@@ -2841,7 +3637,7 @@
         <v>-5.7437826428165042E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>-4.919802937934431E-2</v>
       </c>
@@ -2858,7 +3654,7 @@
         <v>-8.1857338241598299E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>0.23751951923531911</v>
       </c>
@@ -2875,7 +3671,7 @@
         <v>0.14115894555075484</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>0.34426919032597264</v>
       </c>
@@ -2892,7 +3688,7 @@
         <v>7.6607351604104479E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>4.3890089885083659E-2</v>
       </c>
@@ -2909,7 +3705,7 @@
         <v>0.16019206640285685</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>0.45610234611297307</v>
       </c>
@@ -2926,7 +3722,7 @@
         <v>8.1109747727882875E-4</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>-4.0205847953216411E-2</v>
       </c>
@@ -2943,7 +3739,7 @@
         <v>-7.0232949586467752E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>0.18050654136364536</v>
       </c>
@@ -2960,7 +3756,7 @@
         <v>8.4556543311970295E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>-0.17290699786942387</v>
       </c>
@@ -2977,7 +3773,7 @@
         <v>0.18087397347786213</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>5.0700906585726409E-2</v>
       </c>
@@ -2994,7 +3790,7 @@
         <v>2.7075607521486831E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>-2.2236159416158781E-3</v>
       </c>
@@ -3011,7 +3807,7 @@
         <v>2.491759268698817E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>0.18378095238095243</v>
       </c>
@@ -3028,7 +3824,7 @@
         <v>9.6393431752057807E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>0.40666307312324518</v>
       </c>
@@ -3045,7 +3841,7 @@
         <v>8.5064640508051681E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>-3.1279311843700718E-2</v>
       </c>
@@ -3062,7 +3858,7 @@
         <v>0.12641311580494916</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>0.1918819188191882</v>
       </c>
@@ -3079,7 +3875,7 @@
         <v>0.14169468250605405</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>2.0512693498452073E-2</v>
       </c>
@@ -3096,7 +3892,7 @@
         <v>-7.750925792985365E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>0.12627659987573769</v>
       </c>
@@ -3113,7 +3909,7 @@
         <v>3.6971670714266845E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>0.17003331451400888</v>
       </c>
@@ -3130,7 +3926,7 @@
         <v>1.0350559723154309E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>-7.9135418661873222E-2</v>
       </c>
@@ -3147,7 +3943,7 @@
         <v>-0.15156288539587862</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>0.315</v>
       </c>
@@ -3164,7 +3960,7 @@
         <v>0.13709522897106721</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>-3.8022813688212928E-3</v>
       </c>
@@ -3181,7 +3977,7 @@
         <v>1.4776249923736459E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>-7.1566412213740507E-2</v>
       </c>
@@ -3198,7 +3994,7 @@
         <v>4.4914354098492162E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>0.2034979708085852</v>
       </c>
@@ -3215,7 +4011,7 @@
         <v>0.11669566408658118</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>0.36635167706004834</v>
       </c>
@@ -3232,7 +4028,7 @@
         <v>2.8998984213599734E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>-0.19875000000000001</v>
       </c>
@@ -3249,7 +4045,7 @@
         <v>2.7559402458361634E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>2.0280811232449299E-2</v>
       </c>
@@ -3266,7 +4062,7 @@
         <v>5.1633278647060167E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>7.6452599388379203E-3</v>
       </c>
@@ -3283,7 +4079,7 @@
         <v>-0.1707215894296924</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>-0.1638846737481032</v>
       </c>
@@ -3300,7 +4096,7 @@
         <v>-6.8273979309463981E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>7.441016333938294E-2</v>
       </c>
@@ -3317,7 +4113,7 @@
         <v>1.8691188439735516E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>0.10472972972972973</v>
       </c>
@@ -3334,7 +4130,7 @@
         <v>-6.7660003924756781E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>0.19418960244648317</v>
       </c>
@@ -3351,7 +4147,7 @@
         <v>0.11700819364053212</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>-0.14340588988476313</v>
       </c>
@@ -3368,7 +4164,7 @@
         <v>-4.9667688679880029E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>-4.0358744394618833E-2</v>
       </c>
@@ -3385,7 +4181,7 @@
         <v>0.10627184609022246</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>7.1651090342679122E-2</v>
       </c>
@@ -3402,7 +4198,7 @@
         <v>-7.5036614467579518E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>0.18604651162790697</v>
       </c>
@@ -3419,7 +4215,7 @@
         <v>-0.11433356401384079</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>-0.24632352941176472</v>
       </c>
@@ -3436,7 +4232,7 @@
         <v>0.11560664735096746</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>6.1788617886178863E-2</v>
       </c>
@@ -3453,7 +4249,7 @@
         <v>-0.11001162676677827</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>0.32159264931087289</v>
       </c>
@@ -3470,7 +4266,7 @@
         <v>0.13813478222546804</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>-7.0683661645422946E-2</v>
       </c>
@@ -3487,7 +4283,7 @@
         <v>0.15213428885158026</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>-0.1396508728179551</v>
       </c>
@@ -3504,7 +4300,7 @@
         <v>5.8446344162687659E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>0.14347826086956522</v>
       </c>
@@ -3521,7 +4317,7 @@
         <v>7.8650666025552346E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>-0.10899873257287707</v>
       </c>
@@ -3538,7 +4334,7 @@
         <v>-9.6352633438188715E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>-7.1123755334281651E-3</v>
       </c>
@@ -3555,7 +4351,7 @@
         <v>-3.2693198185933746E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>-0.29369627507163326</v>
       </c>
@@ -3572,7 +4368,7 @@
         <v>4.1291193142024604E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>-4.2596348884381338E-2</v>
       </c>
@@ -3589,42 +4385,42 @@
         <v>-3.8609077762955767E-2</v>
       </c>
     </row>
-    <row r="415" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="415" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C415" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="416" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C416" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="435" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="435" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C435" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="436" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="436" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C436" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="437" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C437" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="440" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="440" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C440" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="441" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="441" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C441" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="442" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C442" s="3" t="s">
         <v>8</v>
       </c>
@@ -3698,20 +4494,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Used_x0020_in_x0020_Chapter xmlns="d1607db4-bd3f-4f82-a312-bf7e283d0a6b">true</Used_x0020_in_x0020_Chapter>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Used_x0020_in_x0020_Chapter xmlns="d1607db4-bd3f-4f82-a312-bf7e283d0a6b">true</Used_x0020_in_x0020_Chapter>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3732,14 +4528,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18EA55C0-10B3-4C61-A3CD-D9A256E040A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF6F118-983D-40B8-B501-4DD378BE346B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -3752,4 +4540,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18EA55C0-10B3-4C61-A3CD-D9A256E040A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>